--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AngelEsteban\Documents\GitHub\Harvest-Moon-Perfect-Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1E14FA-1E1C-4180-BD4D-3FA7AF8C35EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA2750F-040B-47BC-9A70-86B4A00A8726}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{35372BBF-C9FA-4C08-892F-7F9B245B5E31}"/>
   </bookViews>
   <sheets>
     <sheet name="CeldasCampo" sheetId="1" r:id="rId1"/>
-    <sheet name="Restricciones Personaje" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -23,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,11 +389,11 @@
       </c>
       <c r="C1">
         <f ca="1">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D1">
         <f ca="1">IF(C1=79,104,IF(C1=207,100,IF(C1=42,98,IF(C1=47,100,IF(C1=127,104,IF(C1=32,102))))))</f>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -410,11 +405,11 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C65" ca="1" si="0">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <f ca="1">IF(C2=79,104,IF(C2=207,100,IF(C2=42,98,IF(C2=47,100,IF(C2=127,104,IF(C2=32,102))))))</f>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -474,11 +469,11 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D69" ca="1" si="1">IF(C6=79,104,IF(C6=207,100,IF(C6=42,98,IF(C6=47,100,IF(C6=127,104,IF(C6=32,102))))))</f>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,11 +485,11 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,11 +501,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,11 +517,11 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,11 +549,11 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,11 +581,11 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,11 +613,11 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,11 +645,11 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,11 +677,11 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,11 +725,11 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,11 +773,11 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,11 +805,11 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,11 +853,11 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,11 +869,11 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,11 +901,11 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,11 +917,11 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,11 +933,11 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,11 +949,11 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -970,11 +965,11 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,11 +997,11 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,11 +1013,11 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,11 +1045,11 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1066,11 +1061,11 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1082,11 +1077,11 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,11 +1125,11 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,11 +1141,11 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,11 +1157,11 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1194,11 +1189,11 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1210,11 +1205,11 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,11 +1221,11 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,11 +1269,11 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,11 +1285,11 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1306,11 +1301,11 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1322,11 +1317,11 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1338,11 +1333,11 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1354,11 +1349,11 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,11 +1365,11 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1386,11 +1381,11 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,11 +1413,11 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,11 +1429,11 @@
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C129" ca="1" si="2">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1450,11 +1445,11 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,11 +1493,11 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D70">
         <f t="shared" ref="D70:D133" ca="1" si="3">IF(C70=79,104,IF(C70=207,100,IF(C70=42,98,IF(C70=47,100,IF(C70=127,104,IF(C70=32,102))))))</f>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,11 +1509,11 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1562,11 +1557,11 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,11 +1573,11 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,11 +1589,11 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1610,11 +1605,11 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1626,11 +1621,11 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,11 +1637,11 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,11 +1685,11 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,11 +1701,11 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,11 +1717,11 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,11 +1749,11 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,11 +1765,11 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,11 +1781,11 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,11 +1797,11 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1834,11 +1829,11 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1898,11 +1893,11 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,11 +1941,11 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1962,11 +1957,11 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2010,11 +2005,11 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2026,11 +2021,11 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,11 +2037,11 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2074,11 +2069,11 @@
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2106,11 +2101,11 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2154,11 +2149,11 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2170,11 +2165,11 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2218,11 +2213,11 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2234,11 +2229,11 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2250,11 +2245,11 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2266,11 +2261,11 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2410,11 +2405,11 @@
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2442,11 +2437,11 @@
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,11 +2453,11 @@
       </c>
       <c r="C130">
         <f t="shared" ref="C130:C193" ca="1" si="4">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,11 +2469,11 @@
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D131">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2490,11 +2485,11 @@
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2522,11 +2517,11 @@
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D134">
         <f t="shared" ref="D134:D197" ca="1" si="5">IF(C134=79,104,IF(C134=207,100,IF(C134=42,98,IF(C134=47,100,IF(C134=127,104,IF(C134=32,102))))))</f>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,11 +2533,11 @@
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2586,11 +2581,11 @@
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2602,11 +2597,11 @@
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2634,11 +2629,11 @@
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2650,11 +2645,11 @@
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D142">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2682,11 +2677,11 @@
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D144">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2698,11 +2693,11 @@
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D145">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,7 +2709,7 @@
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="4"/>
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="5"/>
@@ -2730,11 +2725,11 @@
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D147">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2746,7 +2741,7 @@
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="D148">
         <f t="shared" ca="1" si="5"/>
@@ -2762,11 +2757,11 @@
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2778,11 +2773,11 @@
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="4"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D150">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2826,11 +2821,11 @@
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D153">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2842,11 +2837,11 @@
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2858,11 +2853,11 @@
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D155">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,11 +2869,11 @@
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D156">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -2906,11 +2901,11 @@
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D158">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -2938,11 +2933,11 @@
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="4"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D160">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3002,11 +2997,11 @@
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="4"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3018,11 +3013,11 @@
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="4"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D165">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3034,11 +3029,11 @@
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3050,11 +3045,11 @@
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D167">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3082,11 +3077,11 @@
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3114,11 +3109,11 @@
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3146,11 +3141,11 @@
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="4"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D173">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3162,11 +3157,11 @@
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="4"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D174">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,11 +3205,11 @@
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D177">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3226,11 +3221,11 @@
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D178">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3258,11 +3253,11 @@
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D180">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3290,11 +3285,11 @@
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D182">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3338,11 +3333,11 @@
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="4"/>
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D185">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3370,11 +3365,11 @@
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="4"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D187">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3418,11 +3413,11 @@
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D190">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3434,11 +3429,11 @@
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D191">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3450,11 +3445,11 @@
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D192">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3466,11 +3461,11 @@
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D193">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3482,11 +3477,11 @@
       </c>
       <c r="C194">
         <f t="shared" ref="C194:C257" ca="1" si="6">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D194">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3498,11 +3493,11 @@
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D195">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3514,11 +3509,11 @@
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D196">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,11 +3525,11 @@
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3546,11 +3541,11 @@
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D198">
         <f t="shared" ref="D198:D261" ca="1" si="7">IF(C198=79,104,IF(C198=207,100,IF(C198=42,98,IF(C198=47,100,IF(C198=127,104,IF(C198=32,102))))))</f>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3578,11 +3573,11 @@
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3594,11 +3589,11 @@
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D201">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3610,11 +3605,11 @@
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D202">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3626,11 +3621,11 @@
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D203">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3642,11 +3637,11 @@
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D204">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3658,11 +3653,11 @@
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D205">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3690,11 +3685,11 @@
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="6"/>
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D207">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3722,11 +3717,11 @@
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D209">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -3738,11 +3733,11 @@
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D210">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,11 +3749,11 @@
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D211">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -3770,11 +3765,11 @@
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="6"/>
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="D212">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -3802,11 +3797,11 @@
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D214">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3834,11 +3829,11 @@
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D216">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -3850,11 +3845,11 @@
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D217">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -3898,11 +3893,11 @@
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D220">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -3946,11 +3941,11 @@
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D223">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4010,11 +4005,11 @@
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D227">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4026,11 +4021,11 @@
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D228">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4042,11 +4037,11 @@
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D229">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4074,11 +4069,11 @@
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D231">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4090,11 +4085,11 @@
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D232">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4106,11 +4101,11 @@
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D233">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4122,11 +4117,11 @@
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D234">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4138,11 +4133,11 @@
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D235">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4154,11 +4149,11 @@
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D236">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4170,11 +4165,11 @@
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D237">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4186,11 +4181,11 @@
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D238">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4202,11 +4197,11 @@
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D239">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4218,11 +4213,11 @@
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D240">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4250,11 +4245,11 @@
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="6"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D242">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4266,11 +4261,11 @@
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D243">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4282,11 +4277,11 @@
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D244">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4298,11 +4293,11 @@
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D245">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4330,11 +4325,11 @@
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D247">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4346,11 +4341,11 @@
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D248">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4362,11 +4357,11 @@
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D249">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4378,11 +4373,11 @@
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D250">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4426,11 +4421,11 @@
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D253">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4458,11 +4453,11 @@
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="6"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D255">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4474,11 +4469,11 @@
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D256">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4522,11 +4517,11 @@
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D259">
         <f t="shared" ca="1" si="7"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4538,7 +4533,7 @@
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="8"/>
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D260">
         <f t="shared" ca="1" si="7"/>
@@ -4554,11 +4549,11 @@
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D261">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4570,11 +4565,11 @@
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="8"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D262">
         <f t="shared" ref="D262:D325" ca="1" si="9">IF(C262=79,104,IF(C262=207,100,IF(C262=42,98,IF(C262=47,100,IF(C262=127,104,IF(C262=32,102))))))</f>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4586,11 +4581,11 @@
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D263">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4602,11 +4597,11 @@
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="8"/>
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D264">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4618,11 +4613,11 @@
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D265">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4634,7 +4629,7 @@
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="D266">
         <f t="shared" ca="1" si="9"/>
@@ -4650,11 +4645,11 @@
       </c>
       <c r="C267">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D267">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -4666,11 +4661,11 @@
       </c>
       <c r="C268">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D268">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -4682,11 +4677,11 @@
       </c>
       <c r="C269">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D269">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -4730,11 +4725,11 @@
       </c>
       <c r="C272">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D272">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -4746,11 +4741,11 @@
       </c>
       <c r="C273">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D273">
         <f t="shared" ca="1" si="9"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -4778,11 +4773,11 @@
       </c>
       <c r="C275">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D275">
         <f t="shared" ca="1" si="9"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -4794,11 +4789,11 @@
       </c>
       <c r="C276">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D276">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -4810,11 +4805,11 @@
       </c>
       <c r="C277">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D277">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -4826,11 +4821,11 @@
       </c>
       <c r="C278">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D278">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -4842,11 +4837,11 @@
       </c>
       <c r="C279">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D279">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -4874,11 +4869,11 @@
       </c>
       <c r="C281">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D281">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -4890,11 +4885,11 @@
       </c>
       <c r="C282">
         <f t="shared" ca="1" si="8"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D282">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -4906,11 +4901,11 @@
       </c>
       <c r="C283">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D283">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -4922,11 +4917,11 @@
       </c>
       <c r="C284">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D284">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -4938,11 +4933,11 @@
       </c>
       <c r="C285">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D285">
         <f t="shared" ca="1" si="9"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -4954,11 +4949,11 @@
       </c>
       <c r="C286">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D286">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -4970,11 +4965,11 @@
       </c>
       <c r="C287">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D287">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5002,11 +4997,11 @@
       </c>
       <c r="C289">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D289">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5018,11 +5013,11 @@
       </c>
       <c r="C290">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D290">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5050,11 +5045,11 @@
       </c>
       <c r="C292">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D292">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5066,11 +5061,11 @@
       </c>
       <c r="C293">
         <f t="shared" ca="1" si="8"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D293">
         <f t="shared" ca="1" si="9"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5082,11 +5077,11 @@
       </c>
       <c r="C294">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D294">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5098,11 +5093,11 @@
       </c>
       <c r="C295">
         <f t="shared" ca="1" si="8"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D295">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5114,11 +5109,11 @@
       </c>
       <c r="C296">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D296">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5162,11 +5157,11 @@
       </c>
       <c r="C299">
         <f t="shared" ca="1" si="8"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D299">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5178,11 +5173,11 @@
       </c>
       <c r="C300">
         <f t="shared" ca="1" si="8"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D300">
         <f t="shared" ca="1" si="9"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5194,11 +5189,11 @@
       </c>
       <c r="C301">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D301">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5226,11 +5221,11 @@
       </c>
       <c r="C303">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D303">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5258,11 +5253,11 @@
       </c>
       <c r="C305">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D305">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5290,11 +5285,11 @@
       </c>
       <c r="C307">
         <f t="shared" ca="1" si="8"/>
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D307">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5306,11 +5301,11 @@
       </c>
       <c r="C308">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D308">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5322,11 +5317,11 @@
       </c>
       <c r="C309">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D309">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5338,11 +5333,11 @@
       </c>
       <c r="C310">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D310">
         <f t="shared" ca="1" si="9"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5354,11 +5349,11 @@
       </c>
       <c r="C311">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D311">
         <f t="shared" ca="1" si="9"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5370,11 +5365,11 @@
       </c>
       <c r="C312">
         <f t="shared" ca="1" si="8"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D312">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5386,11 +5381,11 @@
       </c>
       <c r="C313">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D313">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5418,11 +5413,11 @@
       </c>
       <c r="C315">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D315">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5434,11 +5429,11 @@
       </c>
       <c r="C316">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D316">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5450,11 +5445,11 @@
       </c>
       <c r="C317">
         <f t="shared" ca="1" si="8"/>
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="D317">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5466,11 +5461,11 @@
       </c>
       <c r="C318">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D318">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5482,11 +5477,11 @@
       </c>
       <c r="C319">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D319">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5498,11 +5493,11 @@
       </c>
       <c r="C320">
         <f t="shared" ca="1" si="8"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D320">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5514,11 +5509,11 @@
       </c>
       <c r="C321">
         <f t="shared" ca="1" si="8"/>
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="D321">
         <f t="shared" ca="1" si="9"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5546,11 +5541,11 @@
       </c>
       <c r="C323">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D323">
         <f t="shared" ca="1" si="9"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -5562,11 +5557,11 @@
       </c>
       <c r="C324">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D324">
         <f t="shared" ca="1" si="9"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -5594,11 +5589,11 @@
       </c>
       <c r="C326">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D326">
         <f t="shared" ref="D326:D389" ca="1" si="11">IF(C326=79,104,IF(C326=207,100,IF(C326=42,98,IF(C326=47,100,IF(C326=127,104,IF(C326=32,102))))))</f>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -5610,11 +5605,11 @@
       </c>
       <c r="C327">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D327">
         <f t="shared" ca="1" si="11"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -5626,11 +5621,11 @@
       </c>
       <c r="C328">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D328">
         <f t="shared" ca="1" si="11"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -5642,11 +5637,11 @@
       </c>
       <c r="C329">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D329">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -5738,11 +5733,11 @@
       </c>
       <c r="C335">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D335">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -5754,11 +5749,11 @@
       </c>
       <c r="C336">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D336">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -5770,11 +5765,11 @@
       </c>
       <c r="C337">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D337">
         <f t="shared" ca="1" si="11"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -5786,11 +5781,11 @@
       </c>
       <c r="C338">
         <f t="shared" ca="1" si="10"/>
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D338">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -5802,11 +5797,11 @@
       </c>
       <c r="C339">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D339">
         <f t="shared" ca="1" si="11"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -5818,11 +5813,11 @@
       </c>
       <c r="C340">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D340">
         <f t="shared" ca="1" si="11"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -5866,11 +5861,11 @@
       </c>
       <c r="C343">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D343">
         <f t="shared" ca="1" si="11"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -5882,11 +5877,11 @@
       </c>
       <c r="C344">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D344">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -5914,11 +5909,11 @@
       </c>
       <c r="C346">
         <f t="shared" ca="1" si="10"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D346">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -5930,11 +5925,11 @@
       </c>
       <c r="C347">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D347">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -5962,11 +5957,11 @@
       </c>
       <c r="C349">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D349">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -5978,11 +5973,11 @@
       </c>
       <c r="C350">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D350">
         <f t="shared" ca="1" si="11"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -6010,11 +6005,11 @@
       </c>
       <c r="C352">
         <f t="shared" ca="1" si="10"/>
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D352">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -6026,11 +6021,11 @@
       </c>
       <c r="C353">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D353">
         <f t="shared" ca="1" si="11"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -6042,11 +6037,11 @@
       </c>
       <c r="C354">
         <f t="shared" ca="1" si="10"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D354">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -6058,11 +6053,11 @@
       </c>
       <c r="C355">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D355">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -6106,11 +6101,11 @@
       </c>
       <c r="C358">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D358">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -6122,11 +6117,11 @@
       </c>
       <c r="C359">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D359">
         <f t="shared" ca="1" si="11"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -6154,11 +6149,11 @@
       </c>
       <c r="C361">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D361">
         <f t="shared" ca="1" si="11"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -6186,7 +6181,7 @@
       </c>
       <c r="C363">
         <f t="shared" ca="1" si="10"/>
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D363">
         <f t="shared" ca="1" si="11"/>
@@ -6202,11 +6197,11 @@
       </c>
       <c r="C364">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D364">
         <f t="shared" ca="1" si="11"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -6218,11 +6213,11 @@
       </c>
       <c r="C365">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D365">
         <f t="shared" ca="1" si="11"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -6250,11 +6245,11 @@
       </c>
       <c r="C367">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D367">
         <f t="shared" ca="1" si="11"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -6266,11 +6261,11 @@
       </c>
       <c r="C368">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D368">
         <f t="shared" ca="1" si="11"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -6282,11 +6277,11 @@
       </c>
       <c r="C369">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D369">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -6298,11 +6293,11 @@
       </c>
       <c r="C370">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D370">
         <f t="shared" ca="1" si="11"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -6314,11 +6309,11 @@
       </c>
       <c r="C371">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D371">
         <f t="shared" ca="1" si="11"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -6362,11 +6357,11 @@
       </c>
       <c r="C374">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D374">
         <f t="shared" ca="1" si="11"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -6394,11 +6389,11 @@
       </c>
       <c r="C376">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D376">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -6426,11 +6421,11 @@
       </c>
       <c r="C378">
         <f t="shared" ca="1" si="10"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D378">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -6442,11 +6437,11 @@
       </c>
       <c r="C379">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D379">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -6522,11 +6517,11 @@
       </c>
       <c r="C384">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D384">
         <f t="shared" ca="1" si="11"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -6554,11 +6549,11 @@
       </c>
       <c r="C386">
         <f t="shared" ref="C386:C449" ca="1" si="12">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D386">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -6586,11 +6581,11 @@
       </c>
       <c r="C388">
         <f t="shared" ca="1" si="12"/>
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D388">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -6602,11 +6597,11 @@
       </c>
       <c r="C389">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D389">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -6618,7 +6613,7 @@
       </c>
       <c r="C390">
         <f t="shared" ca="1" si="12"/>
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D390">
         <f t="shared" ref="D390:D453" ca="1" si="13">IF(C390=79,104,IF(C390=207,100,IF(C390=42,98,IF(C390=47,100,IF(C390=127,104,IF(C390=32,102))))))</f>
@@ -6634,11 +6629,11 @@
       </c>
       <c r="C391">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D391">
         <f t="shared" ca="1" si="13"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -6650,11 +6645,11 @@
       </c>
       <c r="C392">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D392">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -6666,11 +6661,11 @@
       </c>
       <c r="C393">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D393">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -6698,11 +6693,11 @@
       </c>
       <c r="C395">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D395">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -6714,11 +6709,11 @@
       </c>
       <c r="C396">
         <f t="shared" ca="1" si="12"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D396">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -6746,11 +6741,11 @@
       </c>
       <c r="C398">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D398">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -6778,7 +6773,7 @@
       </c>
       <c r="C400">
         <f t="shared" ca="1" si="12"/>
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D400">
         <f t="shared" ca="1" si="13"/>
@@ -6794,11 +6789,11 @@
       </c>
       <c r="C401">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D401">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -6826,11 +6821,11 @@
       </c>
       <c r="C403">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D403">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -6842,11 +6837,11 @@
       </c>
       <c r="C404">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D404">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -6858,11 +6853,11 @@
       </c>
       <c r="C405">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D405">
         <f t="shared" ca="1" si="13"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -6874,11 +6869,11 @@
       </c>
       <c r="C406">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D406">
         <f t="shared" ca="1" si="13"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -6954,11 +6949,11 @@
       </c>
       <c r="C411">
         <f t="shared" ca="1" si="12"/>
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D411">
         <f t="shared" ca="1" si="13"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -6986,11 +6981,11 @@
       </c>
       <c r="C413">
         <f t="shared" ca="1" si="12"/>
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D413">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -7002,11 +6997,11 @@
       </c>
       <c r="C414">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D414">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -7034,11 +7029,11 @@
       </c>
       <c r="C416">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D416">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -7050,11 +7045,11 @@
       </c>
       <c r="C417">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D417">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7082,11 +7077,11 @@
       </c>
       <c r="C419">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D419">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -7098,11 +7093,11 @@
       </c>
       <c r="C420">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D420">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -7114,11 +7109,11 @@
       </c>
       <c r="C421">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D421">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -7130,11 +7125,11 @@
       </c>
       <c r="C422">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D422">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -7146,7 +7141,7 @@
       </c>
       <c r="C423">
         <f t="shared" ca="1" si="12"/>
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D423">
         <f t="shared" ca="1" si="13"/>
@@ -7178,11 +7173,11 @@
       </c>
       <c r="C425">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D425">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -7194,11 +7189,11 @@
       </c>
       <c r="C426">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D426">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -7226,11 +7221,11 @@
       </c>
       <c r="C428">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D428">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -7242,11 +7237,11 @@
       </c>
       <c r="C429">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D429">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -7290,11 +7285,11 @@
       </c>
       <c r="C432">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D432">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -7306,11 +7301,11 @@
       </c>
       <c r="C433">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D433">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -7322,11 +7317,11 @@
       </c>
       <c r="C434">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D434">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -7354,11 +7349,11 @@
       </c>
       <c r="C436">
         <f t="shared" ca="1" si="12"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D436">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -7402,11 +7397,11 @@
       </c>
       <c r="C439">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D439">
         <f t="shared" ca="1" si="13"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -7434,11 +7429,11 @@
       </c>
       <c r="C441">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D441">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -7482,11 +7477,11 @@
       </c>
       <c r="C444">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D444">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -7514,11 +7509,11 @@
       </c>
       <c r="C446">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D446">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -7530,11 +7525,11 @@
       </c>
       <c r="C447">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D447">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -7578,11 +7573,11 @@
       </c>
       <c r="C450">
         <f t="shared" ref="C450:C513" ca="1" si="14">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D450">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -7610,11 +7605,11 @@
       </c>
       <c r="C452">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D452">
         <f t="shared" ca="1" si="13"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -7626,11 +7621,11 @@
       </c>
       <c r="C453">
         <f t="shared" ca="1" si="14"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D453">
         <f t="shared" ca="1" si="13"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -7642,11 +7637,11 @@
       </c>
       <c r="C454">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D454">
         <f t="shared" ref="D454:D517" ca="1" si="15">IF(C454=79,104,IF(C454=207,100,IF(C454=42,98,IF(C454=47,100,IF(C454=127,104,IF(C454=32,102))))))</f>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -7658,11 +7653,11 @@
       </c>
       <c r="C455">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D455">
         <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -7690,11 +7685,11 @@
       </c>
       <c r="C457">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D457">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -7706,11 +7701,11 @@
       </c>
       <c r="C458">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D458">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -7722,11 +7717,11 @@
       </c>
       <c r="C459">
         <f t="shared" ca="1" si="14"/>
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D459">
         <f t="shared" ca="1" si="15"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -7754,11 +7749,11 @@
       </c>
       <c r="C461">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D461">
         <f t="shared" ca="1" si="15"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -7818,11 +7813,11 @@
       </c>
       <c r="C465">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D465">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -7866,11 +7861,11 @@
       </c>
       <c r="C468">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D468">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -7882,11 +7877,11 @@
       </c>
       <c r="C469">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D469">
         <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -7898,11 +7893,11 @@
       </c>
       <c r="C470">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D470">
         <f t="shared" ca="1" si="15"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -7914,11 +7909,11 @@
       </c>
       <c r="C471">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D471">
         <f t="shared" ca="1" si="15"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -7930,11 +7925,11 @@
       </c>
       <c r="C472">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D472">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -7946,11 +7941,11 @@
       </c>
       <c r="C473">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D473">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -7978,11 +7973,11 @@
       </c>
       <c r="C475">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D475">
         <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8010,11 +8005,11 @@
       </c>
       <c r="C477">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D477">
         <f t="shared" ca="1" si="15"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8026,11 +8021,11 @@
       </c>
       <c r="C478">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D478">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8058,11 +8053,11 @@
       </c>
       <c r="C480">
         <f t="shared" ca="1" si="14"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D480">
         <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8090,11 +8085,11 @@
       </c>
       <c r="C482">
         <f t="shared" ca="1" si="14"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D482">
         <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8186,11 +8181,11 @@
       </c>
       <c r="C488">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D488">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8202,11 +8197,11 @@
       </c>
       <c r="C489">
         <f t="shared" ca="1" si="14"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D489">
         <f t="shared" ca="1" si="15"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8218,11 +8213,11 @@
       </c>
       <c r="C490">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D490">
         <f t="shared" ca="1" si="15"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8234,11 +8229,11 @@
       </c>
       <c r="C491">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D491">
         <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8250,11 +8245,11 @@
       </c>
       <c r="C492">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D492">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -8266,11 +8261,11 @@
       </c>
       <c r="C493">
         <f t="shared" ca="1" si="14"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D493">
         <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -8282,11 +8277,11 @@
       </c>
       <c r="C494">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D494">
         <f t="shared" ca="1" si="15"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -8298,11 +8293,11 @@
       </c>
       <c r="C495">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D495">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -8314,11 +8309,11 @@
       </c>
       <c r="C496">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D496">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -8330,11 +8325,11 @@
       </c>
       <c r="C497">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D497">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -8346,11 +8341,11 @@
       </c>
       <c r="C498">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D498">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -8362,11 +8357,11 @@
       </c>
       <c r="C499">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D499">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -8378,11 +8373,11 @@
       </c>
       <c r="C500">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D500">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -8394,11 +8389,11 @@
       </c>
       <c r="C501">
         <f t="shared" ca="1" si="14"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D501">
         <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -8410,11 +8405,11 @@
       </c>
       <c r="C502">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D502">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -8426,11 +8421,11 @@
       </c>
       <c r="C503">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D503">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -8442,11 +8437,11 @@
       </c>
       <c r="C504">
         <f t="shared" ca="1" si="14"/>
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="D504">
         <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -8458,11 +8453,11 @@
       </c>
       <c r="C505">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D505">
         <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -8490,11 +8485,11 @@
       </c>
       <c r="C507">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D507">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -8506,11 +8501,11 @@
       </c>
       <c r="C508">
         <f t="shared" ca="1" si="14"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D508">
         <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -8522,11 +8517,11 @@
       </c>
       <c r="C509">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D509">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -8538,11 +8533,11 @@
       </c>
       <c r="C510">
         <f t="shared" ca="1" si="14"/>
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D510">
         <f t="shared" ca="1" si="15"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -8554,11 +8549,11 @@
       </c>
       <c r="C511">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D511">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -8570,11 +8565,11 @@
       </c>
       <c r="C512">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D512">
         <f t="shared" ca="1" si="15"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -8586,11 +8581,11 @@
       </c>
       <c r="C513">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D513">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -8602,11 +8597,11 @@
       </c>
       <c r="C514">
         <f t="shared" ref="C514:C577" ca="1" si="16">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D514">
         <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -8618,11 +8613,11 @@
       </c>
       <c r="C515">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D515">
         <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -8698,11 +8693,11 @@
       </c>
       <c r="C520">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D520">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -8762,11 +8757,11 @@
       </c>
       <c r="C524">
         <f t="shared" ca="1" si="16"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D524">
         <f t="shared" ca="1" si="17"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -8778,11 +8773,11 @@
       </c>
       <c r="C525">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D525">
         <f t="shared" ca="1" si="17"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -8794,11 +8789,11 @@
       </c>
       <c r="C526">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D526">
         <f t="shared" ca="1" si="17"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -8810,11 +8805,11 @@
       </c>
       <c r="C527">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D527">
         <f t="shared" ca="1" si="17"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -8874,11 +8869,11 @@
       </c>
       <c r="C531">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D531">
         <f t="shared" ca="1" si="17"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -8890,11 +8885,11 @@
       </c>
       <c r="C532">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D532">
         <f t="shared" ca="1" si="17"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -8906,11 +8901,11 @@
       </c>
       <c r="C533">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D533">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -8954,11 +8949,11 @@
       </c>
       <c r="C536">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D536">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9002,11 +8997,11 @@
       </c>
       <c r="C539">
         <f t="shared" ca="1" si="16"/>
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="D539">
         <f t="shared" ca="1" si="17"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -9018,11 +9013,11 @@
       </c>
       <c r="C540">
         <f t="shared" ca="1" si="16"/>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D540">
         <f t="shared" ca="1" si="17"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -9034,11 +9029,11 @@
       </c>
       <c r="C541">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D541">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9050,11 +9045,11 @@
       </c>
       <c r="C542">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D542">
         <f t="shared" ca="1" si="17"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -9082,11 +9077,11 @@
       </c>
       <c r="C544">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D544">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9098,11 +9093,11 @@
       </c>
       <c r="C545">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D545">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -9114,11 +9109,11 @@
       </c>
       <c r="C546">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D546">
         <f t="shared" ca="1" si="17"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -9146,11 +9141,11 @@
       </c>
       <c r="C548">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D548">
         <f t="shared" ca="1" si="17"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -9178,11 +9173,11 @@
       </c>
       <c r="C550">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D550">
         <f t="shared" ca="1" si="17"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -9226,11 +9221,11 @@
       </c>
       <c r="C553">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D553">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -9242,11 +9237,11 @@
       </c>
       <c r="C554">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D554">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -9290,11 +9285,11 @@
       </c>
       <c r="C557">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D557">
         <f t="shared" ca="1" si="17"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -9370,11 +9365,11 @@
       </c>
       <c r="C562">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D562">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -9434,11 +9429,11 @@
       </c>
       <c r="C566">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D566">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -9450,11 +9445,11 @@
       </c>
       <c r="C567">
         <f t="shared" ca="1" si="16"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D567">
         <f t="shared" ca="1" si="17"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -9466,11 +9461,11 @@
       </c>
       <c r="C568">
         <f t="shared" ca="1" si="16"/>
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D568">
         <f t="shared" ca="1" si="17"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -9482,11 +9477,11 @@
       </c>
       <c r="C569">
         <f t="shared" ca="1" si="16"/>
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D569">
         <f t="shared" ca="1" si="17"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -9498,11 +9493,11 @@
       </c>
       <c r="C570">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D570">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -9514,11 +9509,11 @@
       </c>
       <c r="C571">
         <f t="shared" ca="1" si="16"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D571">
         <f t="shared" ca="1" si="17"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -9562,11 +9557,11 @@
       </c>
       <c r="C574">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D574">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -9578,11 +9573,11 @@
       </c>
       <c r="C575">
         <f t="shared" ca="1" si="16"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D575">
         <f t="shared" ca="1" si="17"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -9626,11 +9621,11 @@
       </c>
       <c r="C578">
         <f t="shared" ref="C578:C641" ca="1" si="18">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D578">
         <f t="shared" ca="1" si="17"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -9658,11 +9653,11 @@
       </c>
       <c r="C580">
         <f t="shared" ca="1" si="18"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D580">
         <f t="shared" ca="1" si="17"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -9690,11 +9685,11 @@
       </c>
       <c r="C582">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D582">
         <f t="shared" ref="D582:D645" ca="1" si="19">IF(C582=79,104,IF(C582=207,100,IF(C582=42,98,IF(C582=47,100,IF(C582=127,104,IF(C582=32,102))))))</f>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -9706,11 +9701,11 @@
       </c>
       <c r="C583">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D583">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -9722,11 +9717,11 @@
       </c>
       <c r="C584">
         <f t="shared" ca="1" si="18"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D584">
         <f t="shared" ca="1" si="19"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -9770,7 +9765,7 @@
       </c>
       <c r="C587">
         <f t="shared" ca="1" si="18"/>
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D587">
         <f t="shared" ca="1" si="19"/>
@@ -9802,11 +9797,11 @@
       </c>
       <c r="C589">
         <f t="shared" ca="1" si="18"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D589">
         <f t="shared" ca="1" si="19"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -9818,7 +9813,7 @@
       </c>
       <c r="C590">
         <f t="shared" ca="1" si="18"/>
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="D590">
         <f t="shared" ca="1" si="19"/>
@@ -9866,11 +9861,11 @@
       </c>
       <c r="C593">
         <f t="shared" ca="1" si="18"/>
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D593">
         <f t="shared" ca="1" si="19"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -9882,11 +9877,11 @@
       </c>
       <c r="C594">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D594">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -9898,11 +9893,11 @@
       </c>
       <c r="C595">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D595">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -9930,11 +9925,11 @@
       </c>
       <c r="C597">
         <f t="shared" ca="1" si="18"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D597">
         <f t="shared" ca="1" si="19"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -9946,11 +9941,11 @@
       </c>
       <c r="C598">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D598">
         <f t="shared" ca="1" si="19"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -9994,11 +9989,11 @@
       </c>
       <c r="C601">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D601">
         <f t="shared" ca="1" si="19"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -10026,11 +10021,11 @@
       </c>
       <c r="C603">
         <f t="shared" ca="1" si="18"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D603">
         <f t="shared" ca="1" si="19"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
@@ -10042,11 +10037,11 @@
       </c>
       <c r="C604">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D604">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
@@ -10074,11 +10069,11 @@
       </c>
       <c r="C606">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D606">
         <f t="shared" ca="1" si="19"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
@@ -10138,11 +10133,11 @@
       </c>
       <c r="C610">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D610">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
@@ -10154,11 +10149,11 @@
       </c>
       <c r="C611">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D611">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
@@ -10202,11 +10197,11 @@
       </c>
       <c r="C614">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D614">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
@@ -10218,11 +10213,11 @@
       </c>
       <c r="C615">
         <f t="shared" ca="1" si="18"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D615">
         <f t="shared" ca="1" si="19"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
@@ -10234,11 +10229,11 @@
       </c>
       <c r="C616">
         <f t="shared" ca="1" si="18"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D616">
         <f t="shared" ca="1" si="19"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
@@ -10250,11 +10245,11 @@
       </c>
       <c r="C617">
         <f t="shared" ca="1" si="18"/>
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="D617">
         <f t="shared" ca="1" si="19"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
@@ -10314,7 +10309,7 @@
       </c>
       <c r="C621">
         <f t="shared" ca="1" si="18"/>
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D621">
         <f t="shared" ca="1" si="19"/>
@@ -10330,11 +10325,11 @@
       </c>
       <c r="C622">
         <f t="shared" ca="1" si="18"/>
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D622">
         <f t="shared" ca="1" si="19"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
@@ -10362,11 +10357,11 @@
       </c>
       <c r="C624">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D624">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
@@ -10378,11 +10373,11 @@
       </c>
       <c r="C625">
         <f t="shared" ca="1" si="18"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D625">
         <f t="shared" ca="1" si="19"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
@@ -10410,11 +10405,11 @@
       </c>
       <c r="C627">
         <f t="shared" ca="1" si="18"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D627">
         <f t="shared" ca="1" si="19"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
@@ -10426,11 +10421,11 @@
       </c>
       <c r="C628">
         <f t="shared" ca="1" si="18"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D628">
         <f t="shared" ca="1" si="19"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
@@ -10474,11 +10469,11 @@
       </c>
       <c r="C631">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D631">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
@@ -10506,11 +10501,11 @@
       </c>
       <c r="C633">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D633">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
@@ -10554,11 +10549,11 @@
       </c>
       <c r="C636">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D636">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
@@ -10586,11 +10581,11 @@
       </c>
       <c r="C638">
         <f t="shared" ca="1" si="18"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D638">
         <f t="shared" ca="1" si="19"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
@@ -10602,11 +10597,11 @@
       </c>
       <c r="C639">
         <f t="shared" ca="1" si="18"/>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D639">
         <f t="shared" ca="1" si="19"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
@@ -10618,11 +10613,11 @@
       </c>
       <c r="C640">
         <f t="shared" ca="1" si="18"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D640">
         <f t="shared" ca="1" si="19"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
@@ -10650,11 +10645,11 @@
       </c>
       <c r="C642">
         <f t="shared" ref="C642:C705" ca="1" si="20">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D642">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
@@ -10698,11 +10693,11 @@
       </c>
       <c r="C645">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D645">
         <f t="shared" ca="1" si="19"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
@@ -10746,11 +10741,11 @@
       </c>
       <c r="C648">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D648">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
@@ -10778,11 +10773,11 @@
       </c>
       <c r="C650">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D650">
         <f t="shared" ca="1" si="21"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
@@ -10794,11 +10789,11 @@
       </c>
       <c r="C651">
         <f t="shared" ca="1" si="20"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D651">
         <f t="shared" ca="1" si="21"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
@@ -10826,11 +10821,11 @@
       </c>
       <c r="C653">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D653">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
@@ -10858,11 +10853,11 @@
       </c>
       <c r="C655">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D655">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
@@ -10874,11 +10869,11 @@
       </c>
       <c r="C656">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D656">
         <f t="shared" ca="1" si="21"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
@@ -10890,11 +10885,11 @@
       </c>
       <c r="C657">
         <f t="shared" ca="1" si="20"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D657">
         <f t="shared" ca="1" si="21"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
@@ -10906,11 +10901,11 @@
       </c>
       <c r="C658">
         <f t="shared" ca="1" si="20"/>
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D658">
         <f t="shared" ca="1" si="21"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
@@ -10938,11 +10933,11 @@
       </c>
       <c r="C660">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D660">
         <f t="shared" ca="1" si="21"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
@@ -10954,11 +10949,11 @@
       </c>
       <c r="C661">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D661">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
@@ -10986,11 +10981,11 @@
       </c>
       <c r="C663">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D663">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
@@ -11002,11 +10997,11 @@
       </c>
       <c r="C664">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D664">
         <f t="shared" ca="1" si="21"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
@@ -11018,11 +11013,11 @@
       </c>
       <c r="C665">
         <f t="shared" ca="1" si="20"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D665">
         <f t="shared" ca="1" si="21"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
@@ -11050,11 +11045,11 @@
       </c>
       <c r="C667">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D667">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
@@ -11082,7 +11077,7 @@
       </c>
       <c r="C669">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="D669">
         <f t="shared" ca="1" si="21"/>
@@ -11098,11 +11093,11 @@
       </c>
       <c r="C670">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D670">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
@@ -11130,11 +11125,11 @@
       </c>
       <c r="C672">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D672">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
@@ -11194,11 +11189,11 @@
       </c>
       <c r="C676">
         <f t="shared" ca="1" si="20"/>
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D676">
         <f t="shared" ca="1" si="21"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
@@ -11226,11 +11221,11 @@
       </c>
       <c r="C678">
         <f t="shared" ca="1" si="20"/>
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D678">
         <f t="shared" ca="1" si="21"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
@@ -11242,11 +11237,11 @@
       </c>
       <c r="C679">
         <f t="shared" ca="1" si="20"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D679">
         <f t="shared" ca="1" si="21"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
@@ -11258,11 +11253,11 @@
       </c>
       <c r="C680">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D680">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
@@ -11274,7 +11269,7 @@
       </c>
       <c r="C681">
         <f t="shared" ca="1" si="20"/>
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="D681">
         <f t="shared" ca="1" si="21"/>
@@ -11322,11 +11317,11 @@
       </c>
       <c r="C684">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D684">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
@@ -11338,11 +11333,11 @@
       </c>
       <c r="C685">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D685">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
@@ -11354,11 +11349,11 @@
       </c>
       <c r="C686">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D686">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
@@ -11386,11 +11381,11 @@
       </c>
       <c r="C688">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D688">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -11434,11 +11429,11 @@
       </c>
       <c r="C691">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D691">
         <f t="shared" ca="1" si="21"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -11466,11 +11461,11 @@
       </c>
       <c r="C693">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D693">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
@@ -11482,11 +11477,11 @@
       </c>
       <c r="C694">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D694">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
@@ -11498,11 +11493,11 @@
       </c>
       <c r="C695">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D695">
         <f t="shared" ca="1" si="21"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
@@ -11514,11 +11509,11 @@
       </c>
       <c r="C696">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D696">
         <f t="shared" ca="1" si="21"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
@@ -11530,11 +11525,11 @@
       </c>
       <c r="C697">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D697">
         <f t="shared" ca="1" si="21"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
@@ -11546,11 +11541,11 @@
       </c>
       <c r="C698">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D698">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
@@ -11610,11 +11605,11 @@
       </c>
       <c r="C702">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D702">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
@@ -11626,11 +11621,11 @@
       </c>
       <c r="C703">
         <f t="shared" ca="1" si="20"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D703">
         <f t="shared" ca="1" si="21"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
@@ -11642,11 +11637,11 @@
       </c>
       <c r="C704">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D704">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
@@ -11658,11 +11653,11 @@
       </c>
       <c r="C705">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D705">
         <f t="shared" ca="1" si="21"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
@@ -11690,11 +11685,11 @@
       </c>
       <c r="C707">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D707">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
@@ -11722,11 +11717,11 @@
       </c>
       <c r="C709">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D709">
         <f t="shared" ca="1" si="21"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
@@ -11738,7 +11733,7 @@
       </c>
       <c r="C710">
         <f t="shared" ca="1" si="22"/>
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D710">
         <f t="shared" ref="D710:D773" ca="1" si="23">IF(C710=79,104,IF(C710=207,100,IF(C710=42,98,IF(C710=47,100,IF(C710=127,104,IF(C710=32,102))))))</f>
@@ -11754,11 +11749,11 @@
       </c>
       <c r="C711">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D711">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
@@ -11770,11 +11765,11 @@
       </c>
       <c r="C712">
         <f t="shared" ca="1" si="22"/>
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D712">
         <f t="shared" ca="1" si="23"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
@@ -11786,11 +11781,11 @@
       </c>
       <c r="C713">
         <f t="shared" ca="1" si="22"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D713">
         <f t="shared" ca="1" si="23"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
@@ -11850,11 +11845,11 @@
       </c>
       <c r="C717">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D717">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
@@ -11866,11 +11861,11 @@
       </c>
       <c r="C718">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D718">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
@@ -11882,11 +11877,11 @@
       </c>
       <c r="C719">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D719">
         <f t="shared" ca="1" si="23"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
@@ -11898,11 +11893,11 @@
       </c>
       <c r="C720">
         <f t="shared" ca="1" si="22"/>
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D720">
         <f t="shared" ca="1" si="23"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
@@ -11914,11 +11909,11 @@
       </c>
       <c r="C721">
         <f t="shared" ca="1" si="22"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D721">
         <f t="shared" ca="1" si="23"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
@@ -11962,11 +11957,11 @@
       </c>
       <c r="C724">
         <f t="shared" ca="1" si="22"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D724">
         <f t="shared" ca="1" si="23"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
@@ -11978,11 +11973,11 @@
       </c>
       <c r="C725">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D725">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
@@ -12026,11 +12021,11 @@
       </c>
       <c r="C728">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D728">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
@@ -12074,11 +12069,11 @@
       </c>
       <c r="C731">
         <f t="shared" ca="1" si="22"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D731">
         <f t="shared" ca="1" si="23"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
@@ -12106,11 +12101,11 @@
       </c>
       <c r="C733">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D733">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
@@ -12138,11 +12133,11 @@
       </c>
       <c r="C735">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D735">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
@@ -12170,11 +12165,11 @@
       </c>
       <c r="C737">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D737">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
@@ -12186,11 +12181,11 @@
       </c>
       <c r="C738">
         <f t="shared" ca="1" si="22"/>
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D738">
         <f t="shared" ca="1" si="23"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
@@ -12202,11 +12197,11 @@
       </c>
       <c r="C739">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D739">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
@@ -12218,11 +12213,11 @@
       </c>
       <c r="C740">
         <f t="shared" ca="1" si="22"/>
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D740">
         <f t="shared" ca="1" si="23"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
@@ -12234,11 +12229,11 @@
       </c>
       <c r="C741">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D741">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
@@ -12282,11 +12277,11 @@
       </c>
       <c r="C744">
         <f t="shared" ca="1" si="22"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D744">
         <f t="shared" ca="1" si="23"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
@@ -12346,11 +12341,11 @@
       </c>
       <c r="C748">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D748">
         <f t="shared" ca="1" si="23"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
@@ -12378,11 +12373,11 @@
       </c>
       <c r="C750">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D750">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
@@ -12426,11 +12421,11 @@
       </c>
       <c r="C753">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D753">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
@@ -12458,11 +12453,11 @@
       </c>
       <c r="C755">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D755">
         <f t="shared" ca="1" si="23"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
@@ -12474,11 +12469,11 @@
       </c>
       <c r="C756">
         <f t="shared" ca="1" si="22"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D756">
         <f t="shared" ca="1" si="23"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
@@ -12490,11 +12485,11 @@
       </c>
       <c r="C757">
         <f t="shared" ca="1" si="22"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D757">
         <f t="shared" ca="1" si="23"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
@@ -12506,11 +12501,11 @@
       </c>
       <c r="C758">
         <f t="shared" ca="1" si="22"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D758">
         <f t="shared" ca="1" si="23"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
@@ -12522,11 +12517,11 @@
       </c>
       <c r="C759">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D759">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
@@ -12538,11 +12533,11 @@
       </c>
       <c r="C760">
         <f t="shared" ca="1" si="22"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D760">
         <f t="shared" ca="1" si="23"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
@@ -12554,11 +12549,11 @@
       </c>
       <c r="C761">
         <f t="shared" ca="1" si="22"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D761">
         <f t="shared" ca="1" si="23"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
@@ -12586,11 +12581,11 @@
       </c>
       <c r="C763">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D763">
         <f t="shared" ca="1" si="23"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
@@ -12618,11 +12613,11 @@
       </c>
       <c r="C765">
         <f t="shared" ca="1" si="22"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D765">
         <f t="shared" ca="1" si="23"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
@@ -12634,11 +12629,11 @@
       </c>
       <c r="C766">
         <f t="shared" ca="1" si="22"/>
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="D766">
         <f t="shared" ca="1" si="23"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
@@ -12666,11 +12661,11 @@
       </c>
       <c r="C768">
         <f t="shared" ca="1" si="22"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D768">
         <f t="shared" ca="1" si="23"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
@@ -12682,11 +12677,11 @@
       </c>
       <c r="C769">
         <f t="shared" ca="1" si="22"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D769">
         <f t="shared" ca="1" si="23"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
@@ -12698,11 +12693,11 @@
       </c>
       <c r="C770">
         <f t="shared" ref="C770:C833" ca="1" si="24">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D770">
         <f t="shared" ca="1" si="23"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
@@ -12778,11 +12773,11 @@
       </c>
       <c r="C775">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D775">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
@@ -12794,11 +12789,11 @@
       </c>
       <c r="C776">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D776">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
@@ -12810,11 +12805,11 @@
       </c>
       <c r="C777">
         <f t="shared" ca="1" si="24"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D777">
         <f t="shared" ca="1" si="25"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
@@ -12826,11 +12821,11 @@
       </c>
       <c r="C778">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D778">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
@@ -12842,11 +12837,11 @@
       </c>
       <c r="C779">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D779">
         <f t="shared" ca="1" si="25"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.25">
@@ -12858,11 +12853,11 @@
       </c>
       <c r="C780">
         <f t="shared" ca="1" si="24"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D780">
         <f t="shared" ca="1" si="25"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.25">
@@ -12874,11 +12869,11 @@
       </c>
       <c r="C781">
         <f t="shared" ca="1" si="24"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D781">
         <f t="shared" ca="1" si="25"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.25">
@@ -12890,11 +12885,11 @@
       </c>
       <c r="C782">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D782">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.25">
@@ -12906,11 +12901,11 @@
       </c>
       <c r="C783">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D783">
         <f t="shared" ca="1" si="25"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
@@ -12922,11 +12917,11 @@
       </c>
       <c r="C784">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D784">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
@@ -12970,11 +12965,11 @@
       </c>
       <c r="C787">
         <f t="shared" ca="1" si="24"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D787">
         <f t="shared" ca="1" si="25"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
@@ -13034,11 +13029,11 @@
       </c>
       <c r="C791">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D791">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
@@ -13050,11 +13045,11 @@
       </c>
       <c r="C792">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D792">
         <f t="shared" ca="1" si="25"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
@@ -13098,11 +13093,11 @@
       </c>
       <c r="C795">
         <f t="shared" ca="1" si="24"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D795">
         <f t="shared" ca="1" si="25"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
@@ -13114,11 +13109,11 @@
       </c>
       <c r="C796">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D796">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
@@ -13146,11 +13141,11 @@
       </c>
       <c r="C798">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D798">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
@@ -13162,11 +13157,11 @@
       </c>
       <c r="C799">
         <f t="shared" ca="1" si="24"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D799">
         <f t="shared" ca="1" si="25"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
@@ -13178,11 +13173,11 @@
       </c>
       <c r="C800">
         <f t="shared" ca="1" si="24"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D800">
         <f t="shared" ca="1" si="25"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.25">
@@ -13242,11 +13237,11 @@
       </c>
       <c r="C804">
         <f t="shared" ca="1" si="24"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D804">
         <f t="shared" ca="1" si="25"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.25">
@@ -13258,11 +13253,11 @@
       </c>
       <c r="C805">
         <f t="shared" ca="1" si="24"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D805">
         <f t="shared" ca="1" si="25"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
@@ -13274,11 +13269,11 @@
       </c>
       <c r="C806">
         <f t="shared" ca="1" si="24"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D806">
         <f t="shared" ca="1" si="25"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.25">
@@ -13290,11 +13285,11 @@
       </c>
       <c r="C807">
         <f t="shared" ca="1" si="24"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D807">
         <f t="shared" ca="1" si="25"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
@@ -13322,11 +13317,11 @@
       </c>
       <c r="C809">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D809">
         <f t="shared" ca="1" si="25"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
@@ -13354,11 +13349,11 @@
       </c>
       <c r="C811">
         <f t="shared" ca="1" si="24"/>
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="D811">
         <f t="shared" ca="1" si="25"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
@@ -13370,11 +13365,11 @@
       </c>
       <c r="C812">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D812">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
@@ -13418,11 +13413,11 @@
       </c>
       <c r="C815">
         <f t="shared" ca="1" si="24"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D815">
         <f t="shared" ca="1" si="25"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
@@ -13466,11 +13461,11 @@
       </c>
       <c r="C818">
         <f t="shared" ca="1" si="24"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D818">
         <f t="shared" ca="1" si="25"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
@@ -13482,11 +13477,11 @@
       </c>
       <c r="C819">
         <f t="shared" ca="1" si="24"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D819">
         <f t="shared" ca="1" si="25"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
@@ -13530,11 +13525,11 @@
       </c>
       <c r="C822">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D822">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.25">
@@ -13594,11 +13589,11 @@
       </c>
       <c r="C826">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D826">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.25">
@@ -13626,11 +13621,11 @@
       </c>
       <c r="C828">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D828">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
@@ -13674,11 +13669,11 @@
       </c>
       <c r="C831">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D831">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.25">
@@ -13706,11 +13701,11 @@
       </c>
       <c r="C833">
         <f t="shared" ca="1" si="24"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D833">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.25">
@@ -13738,11 +13733,11 @@
       </c>
       <c r="C835">
         <f t="shared" ca="1" si="26"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D835">
         <f t="shared" ca="1" si="25"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.25">
@@ -13754,11 +13749,11 @@
       </c>
       <c r="C836">
         <f t="shared" ca="1" si="26"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D836">
         <f t="shared" ca="1" si="25"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.25">
@@ -13802,11 +13797,11 @@
       </c>
       <c r="C839">
         <f t="shared" ca="1" si="26"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D839">
         <f t="shared" ca="1" si="27"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.25">
@@ -13882,11 +13877,11 @@
       </c>
       <c r="C844">
         <f t="shared" ca="1" si="26"/>
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D844">
         <f t="shared" ca="1" si="27"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.25">
@@ -13930,11 +13925,11 @@
       </c>
       <c r="C847">
         <f t="shared" ca="1" si="26"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D847">
         <f t="shared" ca="1" si="27"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.25">
@@ -13978,11 +13973,11 @@
       </c>
       <c r="C850">
         <f t="shared" ca="1" si="26"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D850">
         <f t="shared" ca="1" si="27"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.25">
@@ -14010,11 +14005,11 @@
       </c>
       <c r="C852">
         <f t="shared" ca="1" si="26"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D852">
         <f t="shared" ca="1" si="27"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.25">
@@ -14026,11 +14021,11 @@
       </c>
       <c r="C853">
         <f t="shared" ca="1" si="26"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D853">
         <f t="shared" ca="1" si="27"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.25">
@@ -14074,11 +14069,11 @@
       </c>
       <c r="C856">
         <f t="shared" ca="1" si="26"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D856">
         <f t="shared" ca="1" si="27"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.25">
@@ -14106,11 +14101,11 @@
       </c>
       <c r="C858">
         <f t="shared" ca="1" si="26"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D858">
         <f t="shared" ca="1" si="27"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.25">
@@ -14154,11 +14149,11 @@
       </c>
       <c r="C861">
         <f t="shared" ca="1" si="26"/>
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D861">
         <f t="shared" ca="1" si="27"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.25">
@@ -14170,11 +14165,11 @@
       </c>
       <c r="C862">
         <f t="shared" ca="1" si="26"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D862">
         <f t="shared" ca="1" si="27"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.25">
@@ -14186,11 +14181,11 @@
       </c>
       <c r="C863">
         <f t="shared" ca="1" si="26"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D863">
         <f t="shared" ca="1" si="27"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.25">
@@ -14202,11 +14197,11 @@
       </c>
       <c r="C864">
         <f t="shared" ca="1" si="26"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D864">
         <f t="shared" ca="1" si="27"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.25">
@@ -14250,11 +14245,11 @@
       </c>
       <c r="C867">
         <f t="shared" ca="1" si="26"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D867">
         <f t="shared" ca="1" si="27"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.25">
@@ -14282,11 +14277,11 @@
       </c>
       <c r="C869">
         <f t="shared" ca="1" si="26"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D869">
         <f t="shared" ca="1" si="27"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.25">
@@ -14314,11 +14309,11 @@
       </c>
       <c r="C871">
         <f t="shared" ca="1" si="26"/>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D871">
         <f t="shared" ca="1" si="27"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.25">
@@ -14330,11 +14325,11 @@
       </c>
       <c r="C872">
         <f t="shared" ca="1" si="26"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D872">
         <f t="shared" ca="1" si="27"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.25">
@@ -14346,11 +14341,11 @@
       </c>
       <c r="C873">
         <f t="shared" ca="1" si="26"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D873">
         <f t="shared" ca="1" si="27"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.25">
@@ -14362,11 +14357,11 @@
       </c>
       <c r="C874">
         <f t="shared" ca="1" si="26"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D874">
         <f t="shared" ca="1" si="27"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.25">
@@ -14410,11 +14405,11 @@
       </c>
       <c r="C877">
         <f t="shared" ca="1" si="26"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D877">
         <f t="shared" ca="1" si="27"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.25">
@@ -14426,11 +14421,11 @@
       </c>
       <c r="C878">
         <f t="shared" ca="1" si="26"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D878">
         <f t="shared" ca="1" si="27"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.25">
@@ -14442,11 +14437,11 @@
       </c>
       <c r="C879">
         <f t="shared" ca="1" si="26"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D879">
         <f t="shared" ca="1" si="27"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.25">
@@ -14538,11 +14533,11 @@
       </c>
       <c r="C885">
         <f t="shared" ca="1" si="26"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D885">
         <f t="shared" ca="1" si="27"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.25">
@@ -14554,11 +14549,11 @@
       </c>
       <c r="C886">
         <f t="shared" ca="1" si="26"/>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D886">
         <f t="shared" ca="1" si="27"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.25">
@@ -14602,11 +14597,11 @@
       </c>
       <c r="C889">
         <f t="shared" ca="1" si="26"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D889">
         <f t="shared" ca="1" si="27"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.25">
@@ -14618,11 +14613,11 @@
       </c>
       <c r="C890">
         <f t="shared" ca="1" si="26"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D890">
         <f t="shared" ca="1" si="27"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.25">
@@ -14634,11 +14629,11 @@
       </c>
       <c r="C891">
         <f t="shared" ca="1" si="26"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D891">
         <f t="shared" ca="1" si="27"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.25">
@@ -14666,11 +14661,11 @@
       </c>
       <c r="C893">
         <f t="shared" ca="1" si="26"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D893">
         <f t="shared" ca="1" si="27"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.25">
@@ -14682,11 +14677,11 @@
       </c>
       <c r="C894">
         <f t="shared" ca="1" si="26"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D894">
         <f t="shared" ca="1" si="27"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.25">
@@ -14714,11 +14709,11 @@
       </c>
       <c r="C896">
         <f t="shared" ca="1" si="26"/>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D896">
         <f t="shared" ca="1" si="27"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.25">
@@ -14730,11 +14725,11 @@
       </c>
       <c r="C897">
         <f t="shared" ca="1" si="26"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D897">
         <f t="shared" ca="1" si="27"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.25">
@@ -14746,11 +14741,11 @@
       </c>
       <c r="C898">
         <f t="shared" ref="C898:C961" ca="1" si="28">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D898">
         <f t="shared" ca="1" si="27"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.25">
@@ -14826,11 +14821,11 @@
       </c>
       <c r="C903">
         <f t="shared" ca="1" si="28"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D903">
         <f t="shared" ca="1" si="29"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.25">
@@ -14858,11 +14853,11 @@
       </c>
       <c r="C905">
         <f t="shared" ca="1" si="28"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D905">
         <f t="shared" ca="1" si="29"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.25">
@@ -14874,11 +14869,11 @@
       </c>
       <c r="C906">
         <f t="shared" ca="1" si="28"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D906">
         <f t="shared" ca="1" si="29"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.25">
@@ -14890,11 +14885,11 @@
       </c>
       <c r="C907">
         <f t="shared" ca="1" si="28"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D907">
         <f t="shared" ca="1" si="29"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.25">
@@ -14906,11 +14901,11 @@
       </c>
       <c r="C908">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D908">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.25">
@@ -14922,11 +14917,11 @@
       </c>
       <c r="C909">
         <f t="shared" ca="1" si="28"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D909">
         <f t="shared" ca="1" si="29"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.25">
@@ -14954,11 +14949,11 @@
       </c>
       <c r="C911">
         <f t="shared" ca="1" si="28"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D911">
         <f t="shared" ca="1" si="29"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.25">
@@ -14970,11 +14965,11 @@
       </c>
       <c r="C912">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D912">
         <f t="shared" ca="1" si="29"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.25">
@@ -14986,11 +14981,11 @@
       </c>
       <c r="C913">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D913">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.25">
@@ -15002,11 +14997,11 @@
       </c>
       <c r="C914">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D914">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.25">
@@ -15018,11 +15013,11 @@
       </c>
       <c r="C915">
         <f t="shared" ca="1" si="28"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D915">
         <f t="shared" ca="1" si="29"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.25">
@@ -15050,11 +15045,11 @@
       </c>
       <c r="C917">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D917">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.25">
@@ -15066,11 +15061,11 @@
       </c>
       <c r="C918">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D918">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.25">
@@ -15082,7 +15077,7 @@
       </c>
       <c r="C919">
         <f t="shared" ca="1" si="28"/>
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="D919">
         <f t="shared" ca="1" si="29"/>
@@ -15098,11 +15093,11 @@
       </c>
       <c r="C920">
         <f t="shared" ca="1" si="28"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D920">
         <f t="shared" ca="1" si="29"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.25">
@@ -15130,11 +15125,11 @@
       </c>
       <c r="C922">
         <f t="shared" ca="1" si="28"/>
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D922">
         <f t="shared" ca="1" si="29"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.25">
@@ -15146,11 +15141,11 @@
       </c>
       <c r="C923">
         <f t="shared" ca="1" si="28"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D923">
         <f t="shared" ca="1" si="29"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.25">
@@ -15178,7 +15173,7 @@
       </c>
       <c r="C925">
         <f t="shared" ca="1" si="28"/>
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D925">
         <f t="shared" ca="1" si="29"/>
@@ -15210,11 +15205,11 @@
       </c>
       <c r="C927">
         <f t="shared" ca="1" si="28"/>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D927">
         <f t="shared" ca="1" si="29"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.25">
@@ -15242,11 +15237,11 @@
       </c>
       <c r="C929">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D929">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.25">
@@ -15258,11 +15253,11 @@
       </c>
       <c r="C930">
         <f t="shared" ca="1" si="28"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D930">
         <f t="shared" ca="1" si="29"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.25">
@@ -15274,11 +15269,11 @@
       </c>
       <c r="C931">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D931">
         <f t="shared" ca="1" si="29"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.25">
@@ -15322,11 +15317,11 @@
       </c>
       <c r="C934">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D934">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.25">
@@ -15338,11 +15333,11 @@
       </c>
       <c r="C935">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D935">
         <f t="shared" ca="1" si="29"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.25">
@@ -15354,11 +15349,11 @@
       </c>
       <c r="C936">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D936">
         <f t="shared" ca="1" si="29"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.25">
@@ -15386,11 +15381,11 @@
       </c>
       <c r="C938">
         <f t="shared" ca="1" si="28"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D938">
         <f t="shared" ca="1" si="29"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.25">
@@ -15402,11 +15397,11 @@
       </c>
       <c r="C939">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D939">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.25">
@@ -15466,11 +15461,11 @@
       </c>
       <c r="C943">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D943">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.25">
@@ -15482,11 +15477,11 @@
       </c>
       <c r="C944">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D944">
         <f t="shared" ca="1" si="29"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.25">
@@ -15498,11 +15493,11 @@
       </c>
       <c r="C945">
         <f t="shared" ca="1" si="28"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D945">
         <f t="shared" ca="1" si="29"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.25">
@@ -15530,11 +15525,11 @@
       </c>
       <c r="C947">
         <f t="shared" ca="1" si="28"/>
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D947">
         <f t="shared" ca="1" si="29"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.25">
@@ -15546,11 +15541,11 @@
       </c>
       <c r="C948">
         <f t="shared" ca="1" si="28"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D948">
         <f t="shared" ca="1" si="29"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.25">
@@ -15594,11 +15589,11 @@
       </c>
       <c r="C951">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D951">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.25">
@@ -15626,11 +15621,11 @@
       </c>
       <c r="C953">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D953">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.25">
@@ -15706,11 +15701,11 @@
       </c>
       <c r="C958">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D958">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.25">
@@ -15722,11 +15717,11 @@
       </c>
       <c r="C959">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D959">
         <f t="shared" ca="1" si="29"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.25">
@@ -15738,11 +15733,11 @@
       </c>
       <c r="C960">
         <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D960">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.25">
@@ -15786,11 +15781,11 @@
       </c>
       <c r="C963">
         <f t="shared" ca="1" si="30"/>
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D963">
         <f t="shared" ca="1" si="29"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.25">
@@ -15818,11 +15813,11 @@
       </c>
       <c r="C965">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D965">
         <f t="shared" ca="1" si="29"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.25">
@@ -15834,11 +15829,11 @@
       </c>
       <c r="C966">
         <f t="shared" ca="1" si="30"/>
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D966">
         <f t="shared" ref="D966:D1029" ca="1" si="31">IF(C966=79,104,IF(C966=207,100,IF(C966=42,98,IF(C966=47,100,IF(C966=127,104,IF(C966=32,102))))))</f>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.25">
@@ -15850,11 +15845,11 @@
       </c>
       <c r="C967">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D967">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.25">
@@ -15866,7 +15861,7 @@
       </c>
       <c r="C968">
         <f t="shared" ca="1" si="30"/>
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="D968">
         <f t="shared" ca="1" si="31"/>
@@ -15882,11 +15877,11 @@
       </c>
       <c r="C969">
         <f t="shared" ca="1" si="30"/>
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="D969">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.25">
@@ -15898,11 +15893,11 @@
       </c>
       <c r="C970">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D970">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.25">
@@ -15930,11 +15925,11 @@
       </c>
       <c r="C972">
         <f t="shared" ca="1" si="30"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D972">
         <f t="shared" ca="1" si="31"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.25">
@@ -15994,11 +15989,11 @@
       </c>
       <c r="C976">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D976">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.25">
@@ -16026,11 +16021,11 @@
       </c>
       <c r="C978">
         <f t="shared" ca="1" si="30"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D978">
         <f t="shared" ca="1" si="31"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.25">
@@ -16042,11 +16037,11 @@
       </c>
       <c r="C979">
         <f t="shared" ca="1" si="30"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D979">
         <f t="shared" ca="1" si="31"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.25">
@@ -16058,11 +16053,11 @@
       </c>
       <c r="C980">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D980">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.25">
@@ -16074,11 +16069,11 @@
       </c>
       <c r="C981">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D981">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.25">
@@ -16138,11 +16133,11 @@
       </c>
       <c r="C985">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D985">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.25">
@@ -16154,11 +16149,11 @@
       </c>
       <c r="C986">
         <f t="shared" ca="1" si="30"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D986">
         <f t="shared" ca="1" si="31"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.25">
@@ -16170,11 +16165,11 @@
       </c>
       <c r="C987">
         <f t="shared" ca="1" si="30"/>
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="D987">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.25">
@@ -16186,11 +16181,11 @@
       </c>
       <c r="C988">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D988">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.25">
@@ -16202,11 +16197,11 @@
       </c>
       <c r="C989">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D989">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.25">
@@ -16218,11 +16213,11 @@
       </c>
       <c r="C990">
         <f t="shared" ca="1" si="30"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D990">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.25">
@@ -16234,11 +16229,11 @@
       </c>
       <c r="C991">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D991">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.25">
@@ -16250,7 +16245,7 @@
       </c>
       <c r="C992">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="D992">
         <f t="shared" ca="1" si="31"/>
@@ -16266,11 +16261,11 @@
       </c>
       <c r="C993">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D993">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.25">
@@ -16282,11 +16277,11 @@
       </c>
       <c r="C994">
         <f t="shared" ca="1" si="30"/>
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D994">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.25">
@@ -16298,11 +16293,11 @@
       </c>
       <c r="C995">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D995">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.25">
@@ -16314,11 +16309,11 @@
       </c>
       <c r="C996">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D996">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.25">
@@ -16330,11 +16325,11 @@
       </c>
       <c r="C997">
         <f t="shared" ca="1" si="30"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D997">
         <f t="shared" ca="1" si="31"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.25">
@@ -16346,11 +16341,11 @@
       </c>
       <c r="C998">
         <f t="shared" ca="1" si="30"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D998">
         <f t="shared" ca="1" si="31"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.25">
@@ -16362,11 +16357,11 @@
       </c>
       <c r="C999">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D999">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
@@ -16378,11 +16373,11 @@
       </c>
       <c r="C1000">
         <f t="shared" ca="1" si="30"/>
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="D1000">
         <f t="shared" ca="1" si="31"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
@@ -16394,11 +16389,11 @@
       </c>
       <c r="C1001">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D1001">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
@@ -16426,11 +16421,11 @@
       </c>
       <c r="C1003">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D1003">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
@@ -16442,11 +16437,11 @@
       </c>
       <c r="C1004">
         <f t="shared" ca="1" si="30"/>
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="D1004">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
@@ -16490,11 +16485,11 @@
       </c>
       <c r="C1007">
         <f t="shared" ca="1" si="30"/>
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D1007">
         <f t="shared" ca="1" si="31"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
@@ -16506,11 +16501,11 @@
       </c>
       <c r="C1008">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D1008">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
@@ -16522,11 +16517,11 @@
       </c>
       <c r="C1009">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D1009">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
@@ -16538,11 +16533,11 @@
       </c>
       <c r="C1010">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D1010">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
@@ -16618,11 +16613,11 @@
       </c>
       <c r="C1015">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D1015">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
@@ -16634,11 +16629,11 @@
       </c>
       <c r="C1016">
         <f t="shared" ca="1" si="30"/>
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D1016">
         <f t="shared" ca="1" si="31"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
@@ -16650,11 +16645,11 @@
       </c>
       <c r="C1017">
         <f t="shared" ca="1" si="30"/>
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D1017">
         <f t="shared" ca="1" si="31"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
@@ -16666,11 +16661,11 @@
       </c>
       <c r="C1018">
         <f t="shared" ca="1" si="30"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D1018">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
@@ -16698,11 +16693,11 @@
       </c>
       <c r="C1020">
         <f t="shared" ca="1" si="30"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D1020">
         <f t="shared" ca="1" si="31"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
@@ -16762,11 +16757,11 @@
       </c>
       <c r="C1024">
         <f t="shared" ca="1" si="30"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D1024">
         <f t="shared" ca="1" si="31"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
@@ -16778,11 +16773,11 @@
       </c>
       <c r="C1025">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D1025">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
@@ -16794,11 +16789,11 @@
       </c>
       <c r="C1026">
         <f t="shared" ref="C1026:C1075" ca="1" si="32">IF(RANDBETWEEN(1,10)=1,79,IF(RANDBETWEEN(1,10)=2,207,IF(RANDBETWEEN(1,10)=3,42,IF(RANDBETWEEN(1,10)=4,47,IF(RANDBETWEEN(1,10)=5,127,IF(RANDBETWEEN(1,10)=6,32,IF(RANDBETWEEN(1,10)=7,32,IF(RANDBETWEEN(1,10)=8,32,IF(RANDBETWEEN(1,10)=9,32,32)))))))))</f>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D1026">
         <f t="shared" ca="1" si="31"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
@@ -16842,11 +16837,11 @@
       </c>
       <c r="C1029">
         <f t="shared" ca="1" si="32"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D1029">
         <f t="shared" ca="1" si="31"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
@@ -16874,11 +16869,11 @@
       </c>
       <c r="C1031">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D1031">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
@@ -16890,11 +16885,11 @@
       </c>
       <c r="C1032">
         <f t="shared" ca="1" si="32"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D1032">
         <f t="shared" ca="1" si="33"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
@@ -16922,11 +16917,11 @@
       </c>
       <c r="C1034">
         <f t="shared" ca="1" si="32"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D1034">
         <f t="shared" ca="1" si="33"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
@@ -16954,11 +16949,11 @@
       </c>
       <c r="C1036">
         <f t="shared" ca="1" si="32"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D1036">
         <f t="shared" ca="1" si="33"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
@@ -16970,11 +16965,11 @@
       </c>
       <c r="C1037">
         <f t="shared" ca="1" si="32"/>
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D1037">
         <f t="shared" ca="1" si="33"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
@@ -17002,11 +16997,11 @@
       </c>
       <c r="C1039">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D1039">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
@@ -17018,11 +17013,11 @@
       </c>
       <c r="C1040">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D1040">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
@@ -17034,11 +17029,11 @@
       </c>
       <c r="C1041">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D1041">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
@@ -17050,11 +17045,11 @@
       </c>
       <c r="C1042">
         <f t="shared" ca="1" si="32"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D1042">
         <f t="shared" ca="1" si="33"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
@@ -17066,11 +17061,11 @@
       </c>
       <c r="C1043">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D1043">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
@@ -17114,11 +17109,11 @@
       </c>
       <c r="C1046">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D1046">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
@@ -17130,11 +17125,11 @@
       </c>
       <c r="C1047">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D1047">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
@@ -17178,11 +17173,11 @@
       </c>
       <c r="C1050">
         <f t="shared" ca="1" si="32"/>
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D1050">
         <f t="shared" ca="1" si="33"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
@@ -17194,11 +17189,11 @@
       </c>
       <c r="C1051">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1051">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
@@ -17226,11 +17221,11 @@
       </c>
       <c r="C1053">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D1053">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
@@ -17242,7 +17237,7 @@
       </c>
       <c r="C1054">
         <f t="shared" ca="1" si="32"/>
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="D1054">
         <f t="shared" ca="1" si="33"/>
@@ -17274,11 +17269,11 @@
       </c>
       <c r="C1056">
         <f t="shared" ca="1" si="32"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D1056">
         <f t="shared" ca="1" si="33"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
@@ -17290,11 +17285,11 @@
       </c>
       <c r="C1057">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D1057">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
@@ -17306,11 +17301,11 @@
       </c>
       <c r="C1058">
         <f t="shared" ca="1" si="32"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D1058">
         <f t="shared" ca="1" si="33"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
@@ -17322,11 +17317,11 @@
       </c>
       <c r="C1059">
         <f t="shared" ca="1" si="32"/>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D1059">
         <f t="shared" ca="1" si="33"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
@@ -17354,11 +17349,11 @@
       </c>
       <c r="C1061">
         <f t="shared" ca="1" si="32"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D1061">
         <f t="shared" ca="1" si="33"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
@@ -17370,11 +17365,11 @@
       </c>
       <c r="C1062">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D1062">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
@@ -17402,11 +17397,11 @@
       </c>
       <c r="C1064">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D1064">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
@@ -17418,11 +17413,11 @@
       </c>
       <c r="C1065">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1065">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
@@ -17434,11 +17429,11 @@
       </c>
       <c r="C1066">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D1066">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
@@ -17482,11 +17477,11 @@
       </c>
       <c r="C1069">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D1069">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
@@ -17498,11 +17493,11 @@
       </c>
       <c r="C1070">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D1070">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
@@ -17514,11 +17509,11 @@
       </c>
       <c r="C1071">
         <f t="shared" ca="1" si="32"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D1071">
         <f t="shared" ca="1" si="33"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
@@ -17546,11 +17541,11 @@
       </c>
       <c r="C1073">
         <f t="shared" ca="1" si="32"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1073">
         <f t="shared" ca="1" si="33"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
@@ -17562,11 +17557,11 @@
       </c>
       <c r="C1074">
         <f t="shared" ca="1" si="32"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D1074">
         <f t="shared" ca="1" si="33"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
@@ -17578,28 +17573,15 @@
       </c>
       <c r="C1075">
         <f t="shared" ca="1" si="32"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D1075">
         <f t="shared" ca="1" si="33"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98288AD-6863-4D23-B167-14CE3DF26901}">
-  <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>